--- a/Java　初級.xlsx
+++ b/Java　初級.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE54D3E-5215-41D5-AEDE-DE142540E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA892B8-906B-4799-A09F-6CB856ADC7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="368" windowWidth="15390" windowHeight="9442" xr2:uid="{A20200C1-5D8B-4951-A898-659A718C770C}"/>
+    <workbookView xWindow="4380" yWindow="368" windowWidth="15390" windowHeight="9442" activeTab="1" xr2:uid="{A20200C1-5D8B-4951-A898-659A718C770C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
+    <sheet name="変数・定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
   <si>
     <t>JavaScriptとは？</t>
   </si>
@@ -2621,13 +2622,2256 @@
       </rPr>
       <t>パラメータ</t>
     </r>
+  </si>
+  <si>
+    <t>変数・定数とは？</t>
+  </si>
+  <si>
+    <t>数字や文字等のさまざまなデータを入れることができ、入れたデータを書き換えることもできます。</t>
+  </si>
+  <si>
+    <t>一度入れたデータを書き換えることができません。</t>
+  </si>
+  <si>
+    <t>何かの拍子に書き換えられては困るデータは定数にしておくと良いでしょう。</t>
+  </si>
+  <si>
+    <t>例）メールアドレス、エラーメッセージ、ファイルパスなど...</t>
+  </si>
+  <si>
+    <r>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とは、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データを入れる箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のようなものです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>定数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とは、変数と同様に </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データを入れる箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のようなものですが、</t>
+    </r>
+  </si>
+  <si>
+    <t>//nameと書いたのに、hogeと出力されるはずです</t>
+  </si>
+  <si>
+    <t>変数として使用する場合は、そのまま変数名を記述するだけで大丈夫です。</t>
+  </si>
+  <si>
+    <t>ちなみに、</t>
+  </si>
+  <si>
+    <t>変数宣言時のルール</t>
+  </si>
+  <si>
+    <t>【ルール①】</t>
+  </si>
+  <si>
+    <t>変数名を決めるとき、先頭が数字だとエラーになる等の細かいルールがあります。</t>
+  </si>
+  <si>
+    <t>（全部読む必要はなく、知りたいことだけ確認できればOKです）</t>
+  </si>
+  <si>
+    <t>例：動物なら「animal」、果物なら「fruits」、車の名前なら「carName」etc...</t>
+  </si>
+  <si>
+    <t>【ルール②】</t>
+  </si>
+  <si>
+    <t>同じ変数名で2重に定義しようとするとエラーになります。</t>
+  </si>
+  <si>
+    <t>上記のコードでブラウザを更新すると、Consoleには</t>
+  </si>
+  <si>
+    <t>letを使った変数は、中身を書き換えることができます。</t>
+  </si>
+  <si>
+    <t>では「hoge」という文字が入ってる変数nameを「huga」という文字に書き換えたいといった場合はどうすればいいのでしょうか？</t>
+  </si>
+  <si>
+    <t>以下の記述で確認してみてください。</t>
+  </si>
+  <si>
+    <t>letとvarの違い</t>
+  </si>
+  <si>
+    <t>この２つはいくつか違いがあります。違いとしては、</t>
+  </si>
+  <si>
+    <t>となります。</t>
+  </si>
+  <si>
+    <t>基本的にこれからは var は使用せず、 let を使っていきましょう！</t>
+  </si>
+  <si>
+    <t>よく出るエラーメッセージの種類について</t>
+  </si>
+  <si>
+    <t>is not defined ＝ まだ定義されてないですよ</t>
+  </si>
+  <si>
+    <t>以下コードを書くと、consoleには次のようなエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>せっかくなので MDN - 変数で確認してみてください。</t>
+  </si>
+  <si>
+    <t>詳しくはletとvarの違いを参照してみてください。</t>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>このエラーが出たら、まずスペルミスを疑ってみるのも良いですね！</t>
+  </si>
+  <si>
+    <t>SyntaxError ＝ 構文エラー（文法的に間違いがありますよ）</t>
+  </si>
+  <si>
+    <t>文法的にエラーということは、次のように書き方のルールに違反している状態です。</t>
+  </si>
+  <si>
+    <t>英語で書いてある通り「nameはすでに宣言されていますよ」と、そのままですね。</t>
+  </si>
+  <si>
+    <t>エラーメッセージは、問題解決に重要なヒントを教えてくれるものです。</t>
+  </si>
+  <si>
+    <t>エラー文の意味が分からなければ、そのまま貼り付けて検索すると解決することが良くあります。</t>
+  </si>
+  <si>
+    <t>検索して解決策を見つける能力は身に着けておくと後々かなり大きな武器になるので、</t>
+  </si>
+  <si>
+    <t>今のうちに調べる癖をつけておくと良いですよ！</t>
+  </si>
+  <si>
+    <t>問1：次のコードを実行すると、エラーになります。エラー箇所を特定して、200と1000が出力されるように修正してください。</t>
+  </si>
+  <si>
+    <r>
+      <t>プログラミングにおける「＝」は等しいという意味ではなく </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「右辺を左辺に代入する」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> という意味で使用します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>この場合は、変数 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を定義して </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>という文字列を代入しているので、今後は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> というのは「hoge」として扱われます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"hoge"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>定数を定義する場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の部分を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に変えると定数になります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>このようにダブルクォーテーションで囲ってしまうと、変数ではなく </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> として認識されてしまい、コンソールには </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「name」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> と出力されてしまうので注意してください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>基本的には、一目で何のデータが入っているのか分かりやすいように、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データに関連した変数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> にすることが多いです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"fuga"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Uncaught SyntaxError: Identifier 'name' has already been declared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> というエラー出ています。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>その変数はすでに宣言してますよ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」という意味ですね。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2回目の再代入のときは、以下のように</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は書かずに </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>変数名だけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 書いてください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"fuga"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>また変数は、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と同じように扱うことができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"池田"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"くん"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>くんは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月生まれです`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最後に書いたような記述方法は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テンプレートリテラル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と呼びます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>文字列全体を「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」(バッククォート)で囲み、変数名は「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」で囲むことで </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一つの文字列の中に変数や定数を埋め込む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ことができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>こうすると、文字列と変数を </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> で繋ぐ必要が無いので見やすくなります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>テンプレートリテラル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を書くとき、文字列を囲むのはダブルクォートではなく </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バッククォート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であることに注意してください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>変数は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と紹介しましたが、実はもう一つ変数を定義できる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>というものがあります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使い方は同じで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var name = "hoge";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>といった書き方で使用できます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var ➡ 再代入できる。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再定義できる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let ➡ 再代入できる。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再定義できない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'iwasaki'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「age is not defined」＝「ageという変数が定義されてないのに使われてますよ」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> という意味ですね。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>is not defined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> が出る時は、ほとんどの場合 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「定義したつもりがスペルミスで認識されていない」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ことが多いです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'tanaka'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> で再代入する時は 2度目に出てくる </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> は不要のはずです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>A.（main.jsのみ）</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2817,13 +5061,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1990B8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF212529"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2843,7 +5116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2886,10 +5159,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3631,6 +5922,725 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>199129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D101DC-32C7-C833-3C0A-B1CD8ACDD65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2500313"/>
+          <a:ext cx="4791075" cy="1542154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35590</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FD4D2C-0D6D-3781-B3B1-754EE34DE9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="26708101"/>
+          <a:ext cx="4836189" cy="1362074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>623889</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>59624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BA7A31-B0D3-33C2-E681-C9295CB94377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19051" y="31313439"/>
+          <a:ext cx="4719638" cy="940684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1C5DCD-208E-4F76-B0C8-093B61F7E123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4957142"/>
+          <a:ext cx="7539038" cy="654325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>211208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>672756</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDA6F50-2BBD-4F5D-BEEC-5CE3A92B9ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8283" y="6957393"/>
+          <a:ext cx="7539038" cy="236054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E3226F-E55A-4291-B879-DCA062EBE0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11032435"/>
+          <a:ext cx="7539038" cy="886239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>219489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE66449-58BC-4D80-BD05-0F68C2295198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14163261"/>
+          <a:ext cx="7539038" cy="1114011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>211206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D753A1-8987-4BA1-8989-8A912B2A316D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16175935"/>
+          <a:ext cx="7539038" cy="1329358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>219490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAD728F-E87E-4BF8-BAD9-1A29458394F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24669751"/>
+          <a:ext cx="7539038" cy="443120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4245D6-2F76-4464-A98A-463FDAF40D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29063674"/>
+          <a:ext cx="7539038" cy="675033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>219489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FF70BA-9846-46DD-A21D-0D269649D497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35362598"/>
+          <a:ext cx="7539038" cy="1114011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664473</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>219489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1655B058-F0FF-4373-912C-B496C1F5C64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36928011"/>
+          <a:ext cx="7539038" cy="1114011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3930,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC46967-30F3-49DC-815A-830F5E59C4B7}">
   <dimension ref="A1:A239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C231" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4641,12 +7651,12 @@
       </c>
     </row>
     <row r="199" spans="1:1" ht="32.25" x14ac:dyDescent="0.7">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A200" s="14"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A201" s="5" t="s">
@@ -4654,7 +7664,7 @@
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A202" s="14"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A203" s="5" t="s">
@@ -4672,7 +7682,7 @@
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A215" s="14"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A216" s="7" t="s">
@@ -4696,7 +7706,7 @@
       <c r="A220" s="11"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A221" s="14"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A222" s="4" t="s">
@@ -4704,7 +7714,7 @@
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A223" s="14"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A224" s="5" t="s">
@@ -4717,7 +7727,7 @@
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A226" s="14"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A227" s="5" t="s">
@@ -4735,7 +7745,7 @@
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A230" s="14"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A231" s="5" t="s">
@@ -4743,7 +7753,7 @@
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A232" s="14"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A233" s="5" t="s">
@@ -4751,7 +7761,7 @@
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A234" s="14"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A235" s="5" t="s">
@@ -4769,7 +7779,7 @@
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A238" s="14"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A239" s="5" t="s">
@@ -4786,4 +7796,573 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EB6AD-A5EE-4868-9BED-A78E0DA6CDBA}">
+  <dimension ref="A1:A163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A3" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A19" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A20" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A22" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A23" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A24" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A27" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A29" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A31" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A33" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A36" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A38" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A40" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A41" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A42" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A43" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A46" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A48" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A49" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A50" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A51" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A53" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A54" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A55" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A57" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A58" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A60" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A62" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A63" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A65" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A66" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A68" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A69" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A71" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A72" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A73" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A74" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A76" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A78" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A79" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A81" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A82" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A85" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A87" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A88" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A90" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A91" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A92" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A93" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A94" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A96" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A98" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A100" s="15"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="A102" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A104" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A106" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A107" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A116" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A118" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A119" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="A121" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A123" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A125" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A126" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A127" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A135" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A136" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A138" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A139" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A141" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A142" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A143" s="19"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A145" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A147" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A148" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A150" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A152" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A153" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A155" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A156" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A157" s="10"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A158" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A159" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A160" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A161" s="16"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A162" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A163" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1" display="https://developer.mozilla.org/ja/docs/Web/JavaScript/Guide/Variables" xr:uid="{0A17C35A-CEAC-4ED5-A48D-BA2D0BA3CC4C}"/>
+    <hyperlink ref="A96" r:id="rId2" display="https://qiita.com/niisan-tokyo/items/bacb5ed98ea10831eeba" xr:uid="{65425474-F0EE-4546-8DD5-5EC08C4F0152}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/Java　初級.xlsx
+++ b/Java　初級.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA892B8-906B-4799-A09F-6CB856ADC7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC14791-A87E-42E0-81AA-CC8587D746EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="368" windowWidth="15390" windowHeight="9442" activeTab="1" xr2:uid="{A20200C1-5D8B-4951-A898-659A718C770C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="2" xr2:uid="{A20200C1-5D8B-4951-A898-659A718C770C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
     <sheet name="変数・定数" sheetId="2" r:id="rId2"/>
+    <sheet name="条件分岐・演算子" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="393">
   <si>
     <t>JavaScriptとは？</t>
   </si>
@@ -4864,6 +4865,5151 @@
   </si>
   <si>
     <t>A.（main.jsのみ）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>演算子</t>
+  </si>
+  <si>
+    <t>演算子とは、プログラミングで使用できる記号のことです。</t>
+  </si>
+  <si>
+    <t>名前を覚えたりするより、使い方になれる方が重要なので、実際に書いて確認してみましょう。</t>
+  </si>
+  <si>
+    <t>それぞれを表にまとめると以下のような感じです。</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>算術演算子</t>
+  </si>
+  <si>
+    <t>算数で使う「足し算」「引き算」と同じようなものです</t>
+  </si>
+  <si>
+    <t>1 + 2、 10 - 5</t>
+  </si>
+  <si>
+    <t>代入演算子</t>
+  </si>
+  <si>
+    <t>「=」を使って、右辺を左辺に代入します</t>
+  </si>
+  <si>
+    <t>let name = "hoge";</t>
+  </si>
+  <si>
+    <t>比較演算子</t>
+  </si>
+  <si>
+    <t>左辺と右辺の値を比較する演算子です</t>
+  </si>
+  <si>
+    <t>10 &lt; 15、10 === 10</t>
+  </si>
+  <si>
+    <t>論理演算子</t>
+  </si>
+  <si>
+    <t>ANDやORを使って条件を指定します</t>
+  </si>
+  <si>
+    <t>x === 10 &amp;&amp; y === 20</t>
+  </si>
+  <si>
+    <t>それでは、一つずつ詳しく見ていきます。</t>
+  </si>
+  <si>
+    <t>算数で出てくる記号の使い方と同じように計算することができます。</t>
+  </si>
+  <si>
+    <t>それでは、実際に演算子を使ってみましょう</t>
+  </si>
+  <si>
+    <t>//足し算</t>
+  </si>
+  <si>
+    <t>//引き算</t>
+  </si>
+  <si>
+    <t>//掛け算</t>
+  </si>
+  <si>
+    <t>//割り算</t>
+  </si>
+  <si>
+    <t>//剰余</t>
+  </si>
+  <si>
+    <t>//num1とnum2の計算した結果をresultに入れるためにそれぞれ変数を用意します。</t>
+  </si>
+  <si>
+    <t>//文字列の結合の例</t>
+  </si>
+  <si>
+    <t>//HelloとWorldに空白を入れたいときは、Helloの直後か、Worldの直前にスペースを入れてください</t>
+  </si>
+  <si>
+    <t>//変数の結合の例</t>
+  </si>
+  <si>
+    <t>自分自身に1を足したり,1を引いたりすることができます。</t>
+  </si>
+  <si>
+    <t>//左辺のnameに、右辺のhogeを代入する</t>
+  </si>
+  <si>
+    <t>文字通り比較を行う演算子のことです。</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>A === B</t>
+  </si>
+  <si>
+    <t>AとBは等しい場合</t>
+  </si>
+  <si>
+    <t>A !== B</t>
+  </si>
+  <si>
+    <t>AとBが等しくない場合</t>
+  </si>
+  <si>
+    <t>A &gt; B</t>
+  </si>
+  <si>
+    <t>BがA未満の場合</t>
+  </si>
+  <si>
+    <t>A &gt;= B</t>
+  </si>
+  <si>
+    <t>AがB以上の場合</t>
+  </si>
+  <si>
+    <t>A &lt; B</t>
+  </si>
+  <si>
+    <t>AがB未満の場合</t>
+  </si>
+  <si>
+    <t>A &lt;= B</t>
+  </si>
+  <si>
+    <t>AがB以下の場合</t>
+  </si>
+  <si>
+    <t>それでは、実際に例を見てみましょう</t>
+  </si>
+  <si>
+    <t>使用例</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最後の2行に注目してください。</t>
+  </si>
+  <si>
+    <t>イコール記号2つと3つの書き方があります。</t>
+  </si>
+  <si>
+    <t>等しくないと判断されて、falseになっています。</t>
+  </si>
+  <si>
+    <t>「==」でも比較は可能なのですが、思いもよらないところでエラーが出たりするので、</t>
+  </si>
+  <si>
+    <t>特別な理由がない限りは厳密等価演算子の「===」を使用することをお勧めします。</t>
+  </si>
+  <si>
+    <t>※論理演算子は次の「条件分岐」で解説します。↓↓</t>
+  </si>
+  <si>
+    <t>条件分岐</t>
+  </si>
+  <si>
+    <t>いわゆる、if文というものですね。「もし◯◯なら、△△をする。◯◯じゃなかったら、××をする」というように条件によって、処理を分けていく手法です。</t>
+  </si>
+  <si>
+    <t>プログラミングでは、ほぼ確実に使用する技です。</t>
+  </si>
+  <si>
+    <t>if文を使いこなせるようになると、出来る幅がかなり広がってくるので、頑張って見ていきましょう!</t>
+  </si>
+  <si>
+    <t>基本の形</t>
+  </si>
+  <si>
+    <t>if文の構成は以下の通りです</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>先にJavaScriptで書いた形を載せておきます。</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>試しに、1行目の90を60に変更してみましょう。</t>
+  </si>
+  <si>
+    <t>すると、else の処理に入るので「不合格」と表示されるはずです。</t>
+  </si>
+  <si>
+    <t>処理の流れをフローチャート図で見ると以下のような感じです。(今回の例は右側の図です)</t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>試しに、1行目の60を0に変更してみましょう。</t>
+  </si>
+  <si>
+    <t>より複雑な条件を作りたい時に「演算子」のところで出てきた「論理演算子」を使います。</t>
+  </si>
+  <si>
+    <t>演算</t>
+  </si>
+  <si>
+    <t>演算記法</t>
+  </si>
+  <si>
+    <t>AND 演算</t>
+  </si>
+  <si>
+    <t>A &amp;&amp; B</t>
+  </si>
+  <si>
+    <t>OR 演算</t>
+  </si>
+  <si>
+    <t>A || B</t>
+  </si>
+  <si>
+    <t>NOT 演算</t>
+  </si>
+  <si>
+    <t>A != B</t>
+  </si>
+  <si>
+    <t>if文でよく使われる表現の方法</t>
+  </si>
+  <si>
+    <t>if文の条件に指定したいけど、どのように書けば良いかわかりにくそうな表現について載せておきます。</t>
+  </si>
+  <si>
+    <t>1. 特定の範囲の数値を条件にしたいとき</t>
+  </si>
+  <si>
+    <t>//うまく「15」が出力されたら、条件がtrueだった証拠です。</t>
+  </si>
+  <si>
+    <t>2.偶数か奇数の判定</t>
+  </si>
+  <si>
+    <t>具体的には以下のように書きます。</t>
+  </si>
+  <si>
+    <t>偶数 : a % 2 === 0</t>
+  </si>
+  <si>
+    <t>奇数 : a % 2 !== 0</t>
+  </si>
+  <si>
+    <t>JavaScript→1-3というフォルダの中に作成してください。</t>
+  </si>
+  <si>
+    <t>問1：次の条件を、論理演算子を使って表してください。</t>
+  </si>
+  <si>
+    <t>・変数aは10ではない</t>
+  </si>
+  <si>
+    <t>・変数bは10以上20未満、かつ偶数である。</t>
+  </si>
+  <si>
+    <t>問2：以下の条件を満たすように、記述してください</t>
+  </si>
+  <si>
+    <t>・変数xが、10〜20の値だった場合「成功です」と出力される</t>
+  </si>
+  <si>
+    <t>・それ以外は「失敗です」と出力される</t>
+  </si>
+  <si>
+    <t>・変数xには、最初に10を入れておいてください</t>
+  </si>
+  <si>
+    <t>問3：以下の条件を満たすように、記述してください</t>
+  </si>
+  <si>
+    <t>・変数yが偶数なら「偶数です」と出力される</t>
+  </si>
+  <si>
+    <t>・変数yが奇数なら「奇数です」と出力される</t>
+  </si>
+  <si>
+    <t>・変数yには、最初に0を入れておいてください</t>
+  </si>
+  <si>
+    <r>
+      <t>算術演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代入演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比較演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>論理演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など難しそうな単語ではありますが、中身は簡単なので安心してください。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>足し算（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>引き算（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>掛け算（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>割り算（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>剰余（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）割り算の余りが求められます</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ちなみに、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> や </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> を結合する時にも使用できます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Hello '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'World'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lastName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'田中'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firstName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'一郎'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fullName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lastName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firstName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fullName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を使うと、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>++;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>インクリメント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デクリメント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> と言います。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>代入演算子に関しては「変数、定数」で行った変数の話と同じで、「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>右辺を左辺に入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」というものです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"hoge"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>記号は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を使用して、両辺の値の比較を行います。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//true        「両辺が等しい」という条件 → 正しいのでtrue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//false        「両辺が等しい」という条件 → 正しくないのでfalse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> !== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//true        「10と5は等しくない」という条件 → 正しいので true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//false        「10と20を比べて、10の方が大きい」という条件 → 正しくないのでfalse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//true        「左辺の10は右辺の10という値以上か」という条件 → 正しいのでtrue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'10'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'10'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「==」は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等価演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> というもので、値が等しいかどうかの判定だけ行います。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「===」は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厳密等価演算子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> というもので、値の「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」も等しいかどうかまで判定します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>今回の例で言うと、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console.log('10' === 10);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列の10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> と </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数値の10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> のように別の型同士を比べているので、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件が正しいときの処理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件が正しくなかったときの処理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>それでは、if文を使って </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「70点以上」という条件なら合格、「それ以外」という条件なら不合格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> というように出力を振り分けてみましょう。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'合格'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'不合格'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>①1行目の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let score = 90;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> でscoreが90点に決まります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>② </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (score &gt;= 70)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> で、score（90）は70より大きいので、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の処理に入ります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>③ ②が正しくなかった場合、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の処理に入ります。（今回は入らないのでelseの処理は無視）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if文では、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> を使っていくつでも条件を追加することができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で「それ以外の全て」という条件にするのではなく、もっと細かく指定したい時に使います。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は「もし◯◯なら、△△をする。〇〇じゃなくて、××だったら□□」と指定することができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例えば、先ほどの例に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> を使って、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「70点以上じゃなくて、0点だったら」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>という条件を追加してみましょう。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'0点はまずいです...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'不合格'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>①1行目の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let score = 60;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> でscoreが60点に決まります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>② </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (score &gt;= 70)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> で、scoreが70点以上というのが正しくないので、すぐ下の合格を出力する </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の処理には入りません。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>③ ②が正しくなかったので、次は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の条件の判定です。60 === 0は成り立たないので、今回も次の処理を飛ばします。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>④ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> まで来たので、今までの条件に当てはまらなかった全てのものがここにたどり着きます。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の処理が実行されて「不合格」が出力されます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>すると、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の処理に合致するので「0点はまずいです...」と表示されるはずです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AとB両方の条件を満たす場合に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AまたはBどちらかの条件を満たす場合に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AがBでない場合に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例えば「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>変数aが10〜20の時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 」という条件を作りたい場合です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「10以上（a &gt;= 10）」と「20以下(a &lt;= 20)」という二つの条件を </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF66D9B"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> で繋ぐという考え方で表現出来ます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>偶数か奇数の判定は、対象の変数を2で割った時の余りが0なら </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偶数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。そうでなければ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奇数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> と判断できます。</t>
+    </r>
+  </si>
+  <si>
+    <t>こたえ（main.jsのみ）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'成功です'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'失敗です'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'偶数です'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'奇数です'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>参考：https://freeks-japan.blog/javascript/1/26/</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4871,7 +10017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5078,8 +10224,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF212529"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5098,13 +10277,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCED4D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5116,7 +10316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5162,9 +10362,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -5182,6 +10379,42 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6641,6 +11874,662 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3781425</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>162340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE5A7FF-4011-C899-8130-E2D4AC201275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="35704464"/>
+          <a:ext cx="4643437" cy="2624551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C5C751-1681-431D-842A-2EC74E2C6EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6791325"/>
+          <a:ext cx="7539038" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6DE114-3641-4718-9F8B-D3EF636918A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11715750"/>
+          <a:ext cx="7539038" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540022BD-DC87-4B66-80F8-C8DFFF2C21E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14625639"/>
+          <a:ext cx="7539038" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC40704-C120-4222-A178-52F10C528BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18021301"/>
+          <a:ext cx="7539038" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E843D1-FCA6-4D99-9445-E83E31722569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22536150"/>
+          <a:ext cx="7539038" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5977DBB2-58E8-4BAF-BC03-4A95081FE195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30551439"/>
+          <a:ext cx="7539038" cy="1128712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7070CD-5B04-41A6-9BA4-E4574667F4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32565975"/>
+          <a:ext cx="7539038" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C0F9E6-C3C7-419F-A8DA-45488B7864D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41438514"/>
+          <a:ext cx="7539038" cy="1795462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356CDEB0-266E-4971-9FCD-86F739173AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51311176"/>
+          <a:ext cx="7539038" cy="1119188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670C5A94-2565-44A9-A034-CBC8255C9C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="59697938"/>
+          <a:ext cx="7539038" cy="4043362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7802,8 +13691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EB6AD-A5EE-4868-9BED-A78E0DA6CDBA}">
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7816,9 +13705,6 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A2" s="15"/>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A3" s="7" t="s">
         <v>133</v>
@@ -7829,9 +13715,6 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A5" s="15"/>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A6" s="7" t="s">
         <v>134</v>
@@ -7853,17 +13736,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7887,9 +13770,6 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A28" s="15"/>
-    </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A29" s="5" t="s">
         <v>137</v>
@@ -7901,7 +13781,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7957,7 +13837,7 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7967,7 +13847,7 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7991,9 +13871,6 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A56" s="15"/>
-    </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A57" s="5" t="s">
         <v>146</v>
@@ -8004,16 +13881,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A59" s="15"/>
-    </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A60" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8043,7 +13917,7 @@
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8053,7 +13927,7 @@
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8077,9 +13951,6 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A80" s="15"/>
-    </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A81" s="5" t="s">
         <v>188</v>
@@ -8093,17 +13964,11 @@
     <row r="83" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A84" s="15"/>
-    </row>
     <row r="85" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A85" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A86" s="15"/>
-    </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A87" s="5" t="s">
         <v>190</v>
@@ -8114,9 +13979,6 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A89" s="15"/>
-    </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A90" s="5" t="s">
         <v>150</v>
@@ -8142,38 +14004,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A95" s="15"/>
-    </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A96" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A97" s="15"/>
-    </row>
     <row r="98" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A99" s="15"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A100" s="15"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A101" s="15"/>
-    </row>
     <row r="102" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A103" s="15"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A104" s="5" t="s">
@@ -8181,7 +14025,7 @@
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="17" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8195,9 +14039,6 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A117" s="15"/>
-    </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A118" s="7" t="s">
         <v>197</v>
@@ -8208,26 +14049,23 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A120" s="15"/>
-    </row>
     <row r="121" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8246,9 +14084,6 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A137" s="15"/>
-    </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A138" s="5" t="s">
         <v>163</v>
@@ -8259,33 +14094,24 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A140" s="15"/>
-    </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A141" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A143" s="19"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A144" s="15"/>
+      <c r="A143" s="18"/>
     </row>
     <row r="145" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A145" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A146" s="15"/>
-    </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A147" s="5" t="s">
         <v>91</v>
@@ -8296,16 +14122,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A149" s="15"/>
-    </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A150" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8333,7 +14156,7 @@
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="19" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8343,7 +14166,7 @@
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A161" s="16"/>
+      <c r="A161" s="15"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A162" s="13" t="s">
@@ -8365,4 +14188,1155 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531EBF1-2F7E-4D10-9C5E-B2E101682262}">
+  <dimension ref="A1:C272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="11.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A17" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A18" s="21"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A19" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A21" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A22" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A23" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A24" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A25" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A26" s="21"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A27" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A29" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A30" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A31" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A32" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A33" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A34" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A35" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A36" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A37" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A38" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A39" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A40" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A41" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A42" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A43" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A44" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A45" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A46" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A47" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A49" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A51" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A52" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A53" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A54" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A55" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A56" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A57" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A59" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A61" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A62" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A64" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A65" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A66" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A67" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A68" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A69" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A71" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A72" s="21"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A73" s="21"/>
+    </row>
+    <row r="74" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A74" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A75" s="21"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A76" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A78" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A79" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A82" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A84" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A85" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A87" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A88" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A89" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A90" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A91" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A92" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A93" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A95" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A97" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A98" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A99" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A100" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A101" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A103" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A104" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A106" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A107" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A108" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A109" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A110" s="21"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A111" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A112" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A113" s="21"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A114" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A115" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A116" s="21"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A117" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A119" s="21"/>
+    </row>
+    <row r="120" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A120" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A121" s="21"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A122" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A123" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A124" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A126" s="21"/>
+    </row>
+    <row r="127" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="A127" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A128" s="21"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A129" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A131" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A132" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A133" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A134" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A135" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A136" s="9"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A137" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A138" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A140" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A141" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A142" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A143" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A144" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A145" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A146" s="9"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A147" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A148" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A149" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A150" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A151" s="21"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A152" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A153" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A154" s="21"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A155" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="A171" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A172" s="21"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A173" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A174" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A175" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A176" s="21"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A177" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A179" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A180" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A181" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A182" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A183" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A184" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A185" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A186" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A187" s="9"/>
+    </row>
+    <row r="188" spans="1:1" ht="22.9" x14ac:dyDescent="0.7">
+      <c r="A188" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A189" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A190" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A191" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A192" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A193" s="21"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A194" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A195" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A196" s="21"/>
+    </row>
+    <row r="198" spans="1:3" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A198" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A199" s="21"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A200" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A202" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A203" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="A204" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C204" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A205" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="A208" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A209" s="21"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A210" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A211" s="21"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A212" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A213" s="21"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A214" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A215" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A217" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A218" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A219" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A220" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A221" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="22.9" x14ac:dyDescent="0.7">
+      <c r="A223" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A224" s="21"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A225" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A226" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A227" s="21"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A228" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A229" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A232" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A234" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A235" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A236" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A237" s="21"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A238" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A239" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A240" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A241" s="21"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A242" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A243" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A244" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A245" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A246" s="21"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A247" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A248" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A249" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A250" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A252" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A253" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A254" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A255" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A256" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A257" s="15"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A258" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A259" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A260" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A261" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A262" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A263" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A264" s="15"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A265" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A266" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A267" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A268" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A269" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A270" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A272" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>